--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/LogisticRegression_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/LogisticRegression_predicted_probs_1_features.xlsx
@@ -387,702 +387,702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4807460654384772</v>
+        <v>0.4848821858358007</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.4664787005564973</v>
+        <v>0.4726955672335503</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.4122139687562781</v>
+        <v>0.4261667364853881</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.5067159181939624</v>
+        <v>0.507045683761968</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.5341423397132161</v>
+        <v>0.5304564542292719</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.5216401130763487</v>
+        <v>0.5197818473244867</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.5143642750483969</v>
+        <v>0.513572194771395</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.4823871302081427</v>
+        <v>0.4862832483669967</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.5392291248217661</v>
+        <v>0.5348019318613173</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.4912141029103104</v>
+        <v>0.4938176345393042</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.5229368311983636</v>
+        <v>0.520888707555755</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.4955296719668453</v>
+        <v>0.4975004897156618</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.5201816151648719</v>
+        <v>0.5185369593870782</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.4863465190292249</v>
+        <v>0.4896631529912778</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.4851799194682448</v>
+        <v>0.4886673524063745</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.5259641934190832</v>
+        <v>0.5234730571340641</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.4743766966361083</v>
+        <v>0.479443139825221</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.52213330448643</v>
+        <v>0.520202821856532</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.5044091145182625</v>
+        <v>0.5050773306319468</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.534696054132635</v>
+        <v>0.5309294000345351</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.4746670314875759</v>
+        <v>0.4796911129821808</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.4863437982275104</v>
+        <v>0.4896608305889014</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.4492734016444067</v>
+        <v>0.4579799647888325</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.42844922598899</v>
+        <v>0.4401274608905588</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.4977098587507355</v>
+        <v>0.4993609127563527</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.4805557574455077</v>
+        <v>0.4847197025659329</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.5030948474822075</v>
+        <v>0.5039558934594363</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.4962999829788469</v>
+        <v>0.4981578283884324</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.4673106246012262</v>
+        <v>0.4909109421234265</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.4453943365440323</v>
+        <v>0.479357558037979</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.4381407053353628</v>
+        <v>0.4755155475941493</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.4776407433746214</v>
+        <v>0.4963348889138952</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.4958674826968655</v>
+        <v>0.5058847725862001</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.56356008424179</v>
+        <v>0.5414109173907934</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.4876681434221914</v>
+        <v>0.5015910826842155</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.4172555185993306</v>
+        <v>0.4643867690366969</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.4888230621050371</v>
+        <v>0.5021960566364176</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.509227408092214</v>
+        <v>0.5128772718167298</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.4581164423660758</v>
+        <v>0.4860729479091721</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.5008503309775136</v>
+        <v>0.5084930058939547</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.5450000765783514</v>
+        <v>0.5316296836000324</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.4747691667577904</v>
+        <v>0.4948282008206272</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.4464582606310595</v>
+        <v>0.4799202239938375</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.5889209368521935</v>
+        <v>0.5548807821856313</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.4004296178045973</v>
+        <v>0.455332815564046</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.4934464377617749</v>
+        <v>0.5046172478815835</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.4135475568093215</v>
+        <v>0.462398989367077</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.5642410881764294</v>
+        <v>0.5417708635039526</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.4435836812899125</v>
+        <v>0.4783994862285342</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.540480922486971</v>
+        <v>0.5292551255328831</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.4958674826968655</v>
+        <v>0.5058847725862001</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.5206297936472377</v>
+        <v>0.5188463978966119</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.4972156734296656</v>
+        <v>0.5065905308684397</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.4977025039682048</v>
+        <v>0.5068453675370521</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.4528678815370409</v>
+        <v>0.4833057380717435</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.4841621267194778</v>
+        <v>0.4997540768761282</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.361746673009718</v>
+        <v>0.3934708815493286</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.48089789460995</v>
+        <v>0.5062326879747965</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.4973425822404656</v>
+        <v>0.5215461722812887</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.4178604661787985</v>
+        <v>0.4470236037042518</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.4222153700887522</v>
+        <v>0.4511434090202357</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.4326774266346229</v>
+        <v>0.4610214628776828</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.4687086159540333</v>
+        <v>0.4948496646423048</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.4632242880374224</v>
+        <v>0.4897185673966281</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.5747920804778502</v>
+        <v>0.5931288578538461</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.4295822813987007</v>
+        <v>0.4581018666717462</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.4829713725034416</v>
+        <v>0.5081662119555014</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.5086044324531509</v>
+        <v>0.5320066833593355</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.4609791695713365</v>
+        <v>0.4876162838652863</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.442737755378953</v>
+        <v>0.4704955989092063</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.47257194394799</v>
+        <v>0.4984605631846421</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.4894061959041197</v>
+        <v>0.5141617086565153</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.39629597790562</v>
+        <v>0.426550057584449</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.4042613864838273</v>
+        <v>0.4341270701625545</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.4470523892989927</v>
+        <v>0.4745517214881081</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.4571456929215051</v>
+        <v>0.4840242730072122</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.4137374394685679</v>
+        <v>0.4431186987571581</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.4859212017750437</v>
+        <v>0.5109155754053902</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.4834840396995767</v>
+        <v>0.5086441532539181</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.4198894987530565</v>
+        <v>0.4489436957683751</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.4439775099684833</v>
+        <v>0.4716615024776224</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.4687086159540333</v>
+        <v>0.4948496646423048</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.4350849909894004</v>
+        <v>0.463290896036473</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.4138441387813492</v>
+        <v>0.4432198086856597</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.4750660409020702</v>
+        <v>0.4781353984167351</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.4980217363654623</v>
+        <v>0.501995478460036</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.494771974705862</v>
+        <v>0.4986185795102449</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.4726258177088901</v>
+        <v>0.4755983248818919</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.4970386765096766</v>
+        <v>0.5009739957885059</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.4631921386980077</v>
+        <v>0.4657893749760073</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.504987546130325</v>
+        <v>0.509232577429002</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.4730060887889597</v>
+        <v>0.4759936954342731</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.5037626765018586</v>
+        <v>0.5079601324964146</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.4677166665995762</v>
+        <v>0.470494039841913</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.5389981680325655</v>
+        <v>0.5445369496466678</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.4866448781724384</v>
+        <v>0.4901721263396287</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.5274214819167691</v>
+        <v>0.5325264752511553</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.5421442893300938</v>
+        <v>0.5477995946898444</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.5258617163264417</v>
+        <v>0.5309076973400568</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.5561768746908118</v>
+        <v>0.5623440419044721</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.4954062675101909</v>
+        <v>0.4992777140060504</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.534677193296377</v>
+        <v>0.5400549617374993</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.5081643399341814</v>
+        <v>0.5125324908112258</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.4932780910719149</v>
+        <v>0.4970661390086569</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.5110674147151679</v>
+        <v>0.5155477211378722</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.5176463814674311</v>
+        <v>0.5223795111359339</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.4724639729137877</v>
+        <v>0.475430052953736</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.5314189550305224</v>
+        <v>0.5366745934417302</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.5774912980586293</v>
+        <v>0.5844081247372681</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.4715164395709646</v>
+        <v>0.4744448827393538</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.4960343047393452</v>
+        <v>0.4999303352656808</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.5092054747117434</v>
+        <v>0.5136138881046891</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.4922450966660213</v>
+        <v>0.5096070475220112</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.4922378200987032</v>
+        <v>0.5095992955890941</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.5286243587624603</v>
+        <v>0.5482524623848758</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.4525749374424436</v>
+        <v>0.4672363949620475</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.4538885196364919</v>
+        <v>0.4686425183688457</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.4970644837374489</v>
+        <v>0.5147394721989573</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.4611991389250297</v>
+        <v>0.4764646361617699</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.4553685577200045</v>
+        <v>0.4702265974941774</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.5023720214329693</v>
+        <v>0.5203874834676606</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.5300796406276667</v>
+        <v>0.549793418749883</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.4771443767989658</v>
+        <v>0.4935029903852133</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.4788597231938732</v>
+        <v>0.4953339476766817</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.4928202023564019</v>
+        <v>0.5102196981566548</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.4839880631845739</v>
+        <v>0.5008054779612611</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.4943779830448234</v>
+        <v>0.5118789198434349</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.4734054843149419</v>
+        <v>0.4895107215201402</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.5028103861786311</v>
+        <v>0.5208537637938421</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.4780889708072839</v>
+        <v>0.4945112981325851</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.4969335079810078</v>
+        <v>0.5146000372436739</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.4955316418818462</v>
+        <v>0.5131074603318904</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.4875267632713277</v>
+        <v>0.5045787886230285</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.5421669713428938</v>
+        <v>0.5625760451892901</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.4260217997027578</v>
+        <v>0.438776232156383</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.506164312924836</v>
+        <v>0.5244202153397669</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.4851214318045258</v>
+        <v>0.5020141860382397</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.509413357938133</v>
+        <v>0.5278733280962901</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.5141417853118517</v>
+        <v>0.5328954775918668</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.4627586748713629</v>
+        <v>0.4781324855202679</v>
       </c>
     </row>
   </sheetData>

--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/LogisticRegression_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/LogisticRegression_predicted_probs_1_features.xlsx
@@ -537,7 +537,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.4755155475941493</v>
+        <v>0.4755155475941492</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -642,12 +642,12 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.5188463978966119</v>
+        <v>0.5188463978966118</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.5065905308684397</v>
+        <v>0.5065905308684396</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -697,7 +697,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.4948496646423048</v>
+        <v>0.494849664642305</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -792,12 +792,12 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.4948496646423048</v>
+        <v>0.494849664642305</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.463290896036473</v>
+        <v>0.4632908960364731</v>
       </c>
     </row>
     <row r="85" spans="1:1">
@@ -842,12 +842,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.4759936954342731</v>
+        <v>0.4759936954342729</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.5079601324964146</v>
+        <v>0.5079601324964145</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -937,7 +937,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.4999303352656808</v>
+        <v>0.4999303352656806</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -962,7 +962,7 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.4672363949620475</v>
+        <v>0.4672363949620474</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -987,7 +987,7 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.5203874834676606</v>
+        <v>0.5203874834676605</v>
       </c>
     </row>
     <row r="123" spans="1:1">
@@ -1022,7 +1022,7 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.4895107215201402</v>
+        <v>0.4895107215201401</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -1032,7 +1032,7 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.4945112981325851</v>
+        <v>0.494511298132585</v>
       </c>
     </row>
     <row r="132" spans="1:1">

--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/LogisticRegression_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/LogisticRegression_predicted_probs_1_features.xlsx
@@ -387,702 +387,702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4848821858358007</v>
+        <v>0.5001604593507007</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.4726955672335503</v>
+        <v>0.4849058802656752</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.4261667364853881</v>
+        <v>0.436673384790055</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.507045683761968</v>
+        <v>0.5278381226973986</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.5304564542292719</v>
+        <v>0.5569246548093679</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.5197818473244867</v>
+        <v>0.5436853695225442</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.513572194771395</v>
+        <v>0.5359651967530569</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.4862832483669967</v>
+        <v>0.5019129687469197</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.5348019318613173</v>
+        <v>0.5623013471164403</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.4938176345393042</v>
+        <v>0.5113314894736376</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.520888707555755</v>
+        <v>0.5450601119094423</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.4975004897156618</v>
+        <v>0.5159312686242766</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.5185369593870782</v>
+        <v>0.5421386870779108</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.4896631529912778</v>
+        <v>0.5061393661180495</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.4886673524063745</v>
+        <v>0.5048943727872234</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.5234730571340641</v>
+        <v>0.5482682309229127</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.479443139825221</v>
+        <v>0.4933543524457011</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.520202821856532</v>
+        <v>0.5442082786819463</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.5050773306319468</v>
+        <v>0.5253846671485006</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.5309294000345351</v>
+        <v>0.5575102126408547</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.4796911129821808</v>
+        <v>0.4936647376335463</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.4896608305889014</v>
+        <v>0.5061364627550259</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.4579799647888325</v>
+        <v>0.4664698182632932</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.4401274608905588</v>
+        <v>0.4441051992939212</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.4993609127563527</v>
+        <v>0.5182537460930212</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.4847197025659329</v>
+        <v>0.4999571984893958</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.5039558934594363</v>
+        <v>0.5239863875429898</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.4981578283884324</v>
+        <v>0.516751954204026</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.4909109421234265</v>
+        <v>0.4827816181889734</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.479357558037979</v>
+        <v>0.4679825628465491</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.4755155475941492</v>
+        <v>0.4630669205174138</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.4963348889138952</v>
+        <v>0.4897360659194193</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.5058847725862001</v>
+        <v>0.5019870059157744</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.5414109173907934</v>
+        <v>0.5475426141301206</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.5015910826842155</v>
+        <v>0.4964781719993573</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.4643867690366969</v>
+        <v>0.4488491507731681</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.5021960566364176</v>
+        <v>0.4972542998857762</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.5128772718167298</v>
+        <v>0.5109595465995888</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.4860729479091721</v>
+        <v>0.4765817426032853</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.5084930058939547</v>
+        <v>0.5053337290762113</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.5316296836000324</v>
+        <v>0.5350127910367596</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.4948282008206272</v>
+        <v>0.4878038956290869</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.4799202239938375</v>
+        <v>0.4687027318021607</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.5548807821856313</v>
+        <v>0.558694450855915</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.455332815564046</v>
+        <v>0.4373098273198767</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.5046172478815835</v>
+        <v>0.5003606736870708</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.462398989367077</v>
+        <v>0.446313380900453</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.5417708635039526</v>
+        <v>0.5480033769987804</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.4783994862285342</v>
+        <v>0.4667564582537497</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.5292551255328831</v>
+        <v>0.5319687550882612</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.5058847725862001</v>
+        <v>0.5019870059157744</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.5188463978966118</v>
+        <v>0.5186185464311567</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.5065905308684396</v>
+        <v>0.5028925730859026</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.5068453675370521</v>
+        <v>0.5032195609038674</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.4833057380717435</v>
+        <v>0.4730372627759511</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.4997540768761282</v>
+        <v>0.4941216033309174</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.3934708815493286</v>
+        <v>0.3887578126150231</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.5062326879747965</v>
+        <v>0.5151871133035152</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.5215461722812887</v>
+        <v>0.5323358887832662</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.4470236037042518</v>
+        <v>0.4487429262714034</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.4511434090202357</v>
+        <v>0.4533671223909823</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.4610214628776828</v>
+        <v>0.4644564000989753</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.494849664642305</v>
+        <v>0.5024246854825952</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.4897185673966281</v>
+        <v>0.496668601866353</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.5931288578538461</v>
+        <v>0.608661894160152</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.4581018666717462</v>
+        <v>0.4611786268523041</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.5081662119555014</v>
+        <v>0.5173537899426068</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.5320066833593355</v>
+        <v>0.5440327771173451</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.4876162838652863</v>
+        <v>0.4943097879308456</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.4704955989092063</v>
+        <v>0.4750929956221199</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.4984605631846421</v>
+        <v>0.506474308464212</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.5141617086565153</v>
+        <v>0.5240697679459998</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.426550057584449</v>
+        <v>0.4257763602521074</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.4341270701625545</v>
+        <v>0.4342727163418183</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.4745517214881081</v>
+        <v>0.4796465245880256</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.4840242730072122</v>
+        <v>0.4902789236365188</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.4431186987571581</v>
+        <v>0.4443605800426906</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.5109155754053902</v>
+        <v>0.5204340274163022</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.5086441532539181</v>
+        <v>0.5178893057360189</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.4489436957683751</v>
+        <v>0.4508980201766478</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.4716615024776224</v>
+        <v>0.4764019057950771</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.494849664642305</v>
+        <v>0.5024246854825952</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.4632908960364731</v>
+        <v>0.4670042981645792</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.4432198086856597</v>
+        <v>0.4444740433391894</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.4781353984167351</v>
+        <v>0.43882649810123</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.501995478460036</v>
+        <v>0.4684036483535139</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.4986185795102449</v>
+        <v>0.4642016431517756</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.4755983248818919</v>
+        <v>0.4356983481476653</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.5009739957885059</v>
+        <v>0.4671320715060493</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.4657893749760073</v>
+        <v>0.423638405283787</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.509232577429002</v>
+        <v>0.4774246540279826</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.4759936954342729</v>
+        <v>0.4361855983817653</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.5079601324964145</v>
+        <v>0.4758370802570888</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.470494039841913</v>
+        <v>0.4294157627915302</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.5445369496466678</v>
+        <v>0.5216734489782268</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.4901721263396287</v>
+        <v>0.4537133923787292</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.5325264752511553</v>
+        <v>0.5065829032053847</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.5477995946898444</v>
+        <v>0.5257776166409724</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.5309076973400568</v>
+        <v>0.5045514786649049</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.5623440419044721</v>
+        <v>0.5440911457698124</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.4992777140060504</v>
+        <v>0.4650214495752089</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.5400549617374993</v>
+        <v>0.5160385482819747</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.5125324908112258</v>
+        <v>0.4815446051544133</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.4970661390086569</v>
+        <v>0.4622715201060766</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.5155477211378722</v>
+        <v>0.4853125228682585</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.5223795111359339</v>
+        <v>0.4938609038359141</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.475430052953736</v>
+        <v>0.4354909979238564</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.5366745934417302</v>
+        <v>0.5117913020236233</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.5844081247372681</v>
+        <v>0.5718968502270343</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.4744448827393538</v>
+        <v>0.4342773542515859</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.4999303352656806</v>
+        <v>0.4658333382544225</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.5136138881046891</v>
+        <v>0.4828955856185769</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.5096070475220112</v>
+        <v>0.5009539668943818</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.5095992955890941</v>
+        <v>0.5009442226064068</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.5482524623848758</v>
+        <v>0.5495387899034522</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.4672363949620474</v>
+        <v>0.4478427861135421</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.4686425183688457</v>
+        <v>0.4495982897609197</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.5147394721989573</v>
+        <v>0.5074064810202155</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.4764646361617699</v>
+        <v>0.4593751064988201</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.4702265974941774</v>
+        <v>0.4515767245589254</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.5203874834676605</v>
+        <v>0.5145088280945275</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.549793418749883</v>
+        <v>0.5514739304682035</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.4935029903852133</v>
+        <v>0.4807259475708777</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.4953339476766817</v>
+        <v>0.4830239073258867</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.5102196981566548</v>
+        <v>0.5017240931534238</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.5008054779612611</v>
+        <v>0.4898942049439959</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.5118789198434349</v>
+        <v>0.5038099498065925</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.4895107215201401</v>
+        <v>0.4757175306326983</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.5208537637938421</v>
+        <v>0.5150952187232428</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.494511298132585</v>
+        <v>0.4819913619316073</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.5146000372436739</v>
+        <v>0.5072311599802091</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.5131074603318904</v>
+        <v>0.5053545124593037</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.5045787886230285</v>
+        <v>0.4946345660775961</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.5625760451892901</v>
+        <v>0.567049918174244</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.438776232156383</v>
+        <v>0.4271866713506952</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.5244202153397669</v>
+        <v>0.5195804545714672</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.5020141860382397</v>
+        <v>0.4914124937977245</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.5278733280962901</v>
+        <v>0.5239231336469883</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.5328954775918668</v>
+        <v>0.5302385184189323</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.4781324855202679</v>
+        <v>0.4614620179345167</v>
       </c>
     </row>
   </sheetData>
